--- a/src/main/resources/data/user_data.xlsx
+++ b/src/main/resources/data/user_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Springboot\Workspace\orangehrm\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{310D1DD0-2C4B-43EC-856F-0044F5233D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBB72C6-6888-4769-A4F0-02676E2C7EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7F97923A-A042-4A90-9302-D46A3DF09C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,15 +40,9 @@
     <t>Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Employee Name </t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Linda Anderson</t>
-  </si>
-  <si>
     <t>testuser1</t>
   </si>
   <si>
@@ -142,6 +137,12 @@
   </si>
   <si>
     <t>password10</t>
+  </si>
+  <si>
+    <t>LindaAnderson</t>
+  </si>
+  <si>
+    <t>Employee Name</t>
   </si>
 </sst>
 </file>
@@ -507,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA1C27F-2D5F-45FC-ADEF-5E3004E8BBCE}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -541,172 +542,187 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E6503C-F8DD-455C-BF03-E59843952217}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
